--- a/Progression/Progression_2015_2016.xlsx
+++ b/Progression/Progression_2015_2016.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Progression_PTSI" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Semaine</t>
   </si>
@@ -262,6 +262,426 @@
   </si>
   <si>
     <t>Mercredi - Jeudi</t>
+  </si>
+  <si>
+    <t>Découverte de la mesure des grandeurs mécaniques</t>
+  </si>
+  <si>
+    <t>Découverte de la mesure des grandeurs électriques</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cycle 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Découverte des systèmes pluritechnologiques. 
+Introduction aux grandeurs physiques.</t>
+    </r>
+  </si>
+  <si>
+    <t>Découverte des SLCI 
+Validation des performances des systèmes.</t>
+  </si>
+  <si>
+    <t>Ilôt SLCI</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cycle 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Analyse et Modélisation causale des systèmes asservis.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cycle 3 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Analyse et modélisation des contacts entre solides. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cycle 4 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Mise en œuvre de démarches de résolution permettant de determiner la vitesse des solides</t>
+    </r>
+  </si>
+  <si>
+    <t>21/12/2015
+au
+3/01/2016</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cycle 5 : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Découverte des matériaux et des procédés d'obtention au travers l'analyse du tryptique PPM</t>
+    </r>
+  </si>
+  <si>
+    <t>TOUSSAINT</t>
+  </si>
+  <si>
+    <t>Pâcques</t>
+  </si>
+  <si>
+    <t>Ascension</t>
+  </si>
+  <si>
+    <t>Pentecôte (Lundi)</t>
+  </si>
+  <si>
+    <t>Ascension (Vendredi)</t>
+  </si>
+  <si>
+    <t>Vacances de la Toussaint</t>
+  </si>
+  <si>
+    <t>Vacances de Noël</t>
+  </si>
+  <si>
+    <t>Vacances d'hiver</t>
+  </si>
+  <si>
+    <t>Vacances de printemps</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cycle 6 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Vérification des performances cinématique des systèmes  mécaniques</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cycle 7 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Analyse des transferts d'enérgie.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cycle 8 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Analyse des liaisons entre solides et de leur influence sur la spécification des produits (GPS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cycle 9 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Découverte de la modélisation des actions mécaniques. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cycle 10 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Mise en œuvre de démache de résolution permettant de déterminer les performances des systèmes en statique.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cycle 11 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Modélisation et résolution des problèmes d'arc-boutement. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cycle 12 : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Modélisation des sources et des modulateurs d'énergie.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cycle 13 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Analyse des architectures de réseaux et de la transmission d'informations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cycle 14 : 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Analyse temporelle et fréquentielle des performances des systèmes asservis complexes. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cycle 15 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Analyse et modélisation des systèmes à événements discrets.</t>
+    </r>
+  </si>
+  <si>
+    <t>Ilôt CIN :
+Analyse de mécanisme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilôt cinématique :
+Modélisation des systèmes mécaniques et validation de leurs performances. </t>
+  </si>
+  <si>
+    <t>Découverte des procédés d'obtention des pièces.</t>
+  </si>
+  <si>
+    <t>Découverte des caractéristiques des matériaux.</t>
   </si>
 </sst>
 </file>
@@ -270,9 +690,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,7 +702,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -290,22 +710,131 @@
     </font>
     <font>
       <i/>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -313,38 +842,743 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -358,6 +1592,147 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="819150"/>
+          <a:ext cx="1343025" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467100" y="923925"/>
+          <a:ext cx="1123950" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A regrouper en un seul ilôt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1000" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> de 2 semaines ?</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,278 +2022,814 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C38" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="3" customWidth="1"/>
+    <col min="3" max="12" width="20.7109375" style="4" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="16"/>
+    </row>
+    <row r="4" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
+    </row>
+    <row r="8" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+    </row>
+    <row r="9" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="11" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="44"/>
+    </row>
+    <row r="15" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="68" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="72" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="75"/>
+    </row>
+    <row r="17" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="76" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
+    </row>
+    <row r="18" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="53" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="56"/>
+    </row>
+    <row r="19" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="60"/>
+    </row>
+    <row r="21" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="82" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="85"/>
+    </row>
+    <row r="24" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="86" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="89"/>
+    </row>
+    <row r="25" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="90" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="93"/>
+    </row>
+    <row r="26" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="94" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
+    </row>
+    <row r="27" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="61" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B27" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="64"/>
+    </row>
+    <row r="28" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="98" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
+    </row>
+    <row r="30" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="45" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="48"/>
+    </row>
+    <row r="33" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="52"/>
+    </row>
+    <row r="34" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="99" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="B34" s="100"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="102"/>
+    </row>
+    <row r="35" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="107" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B35" s="108" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="110"/>
+    </row>
+    <row r="36" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="111" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B36" s="112"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
+      <c r="L36" s="115"/>
+    </row>
+    <row r="37" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="116" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="118"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="119"/>
+      <c r="F37" s="119"/>
+      <c r="G37" s="119"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="120"/>
+    </row>
+    <row r="39" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="121" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B41" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="122"/>
+      <c r="D41" s="122"/>
+      <c r="E41" s="122"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
+      <c r="H41" s="122"/>
+      <c r="I41" s="122"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="123"/>
+    </row>
+    <row r="42" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="125" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B42" s="126"/>
+      <c r="C42" s="127"/>
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="G42" s="158"/>
+      <c r="H42" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42" s="127"/>
+      <c r="J42" s="127"/>
+      <c r="K42" s="127"/>
+      <c r="L42" s="128"/>
+    </row>
+    <row r="43" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="138" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B43" s="139" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="141"/>
+    </row>
+    <row r="44" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="130" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B44" s="131" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="132"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="132"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="132"/>
+      <c r="L44" s="133"/>
+    </row>
+    <row r="45" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="134" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="135"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="137"/>
+    </row>
+    <row r="46" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="142" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="145"/>
+    </row>
+    <row r="47" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="103" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B47" s="104" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="106"/>
+    </row>
+    <row r="48" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="146" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="B48" s="147"/>
+      <c r="C48" s="148"/>
+      <c r="D48" s="148"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="148"/>
+      <c r="I48" s="148"/>
+      <c r="J48" s="148"/>
+      <c r="K48" s="148"/>
+      <c r="L48" s="149"/>
+    </row>
+    <row r="49" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="150" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="B49" s="151"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="153"/>
+    </row>
+    <row r="50" spans="1:12" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="154" t="s">
         <v>38</v>
       </c>
+      <c r="B50" s="155"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="157"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="18">
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
